--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3151.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3151.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170750225963039</v>
+        <v>1.039475321769714</v>
       </c>
       <c r="B1">
-        <v>2.247347546266525</v>
+        <v>1.719291210174561</v>
       </c>
       <c r="C1">
-        <v>2.990779958964688</v>
+        <v>4.475198745727539</v>
       </c>
       <c r="D1">
-        <v>3.432168567228917</v>
+        <v>2.480980396270752</v>
       </c>
       <c r="E1">
-        <v>3.530068264513573</v>
+        <v>1.313926219940186</v>
       </c>
     </row>
   </sheetData>
